--- a/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H2">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I2">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J2">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N2">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O2">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P2">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q2">
-        <v>95.93009815569813</v>
+        <v>124.9943202763437</v>
       </c>
       <c r="R2">
-        <v>95.93009815569813</v>
+        <v>499.977281105375</v>
       </c>
       <c r="S2">
-        <v>0.01196966552422532</v>
+        <v>0.01472688310124173</v>
       </c>
       <c r="T2">
-        <v>0.01196966552422532</v>
+        <v>0.008597216148591425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9893826083434</v>
+        <v>3.7825415</v>
       </c>
       <c r="H3">
-        <v>2.9893826083434</v>
+        <v>7.565083</v>
       </c>
       <c r="I3">
-        <v>0.01705625391955307</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J3">
-        <v>0.01705625391955307</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>13.6369725590517</v>
+        <v>0.195349</v>
       </c>
       <c r="N3">
-        <v>13.6369725590517</v>
+        <v>0.586047</v>
       </c>
       <c r="O3">
-        <v>0.2982242419302018</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P3">
-        <v>0.2982242419302018</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q3">
-        <v>40.76612859848534</v>
+        <v>0.7389156994834999</v>
       </c>
       <c r="R3">
-        <v>40.76612859848534</v>
+        <v>4.433494196901</v>
       </c>
       <c r="S3">
-        <v>0.005086588395327748</v>
+        <v>8.705935680843303E-05</v>
       </c>
       <c r="T3">
-        <v>0.005086588395327748</v>
+        <v>7.623487975296701E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2334726315084</v>
+        <v>3.7825415</v>
       </c>
       <c r="H4">
-        <v>1.2334726315084</v>
+        <v>7.565083</v>
       </c>
       <c r="I4">
-        <v>0.007037714860288582</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J4">
-        <v>0.007037714860288582</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>32.0902710439126</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N4">
-        <v>32.0902710439126</v>
+        <v>0.832376</v>
       </c>
       <c r="O4">
-        <v>0.7017757580697982</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P4">
-        <v>0.7017757580697982</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q4">
-        <v>39.58247107035268</v>
+        <v>1.049498921201333</v>
       </c>
       <c r="R4">
-        <v>39.58247107035268</v>
+        <v>6.296993527208</v>
       </c>
       <c r="S4">
-        <v>0.004938897681158103</v>
+        <v>0.000123652401911069</v>
       </c>
       <c r="T4">
-        <v>0.004938897681158103</v>
+        <v>0.0001082781487990821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2334726315084</v>
+        <v>3.7825415</v>
       </c>
       <c r="H5">
-        <v>1.2334726315084</v>
+        <v>7.565083</v>
       </c>
       <c r="I5">
-        <v>0.007037714860288582</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J5">
-        <v>0.007037714860288582</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6369725590517</v>
+        <v>14.267144</v>
       </c>
       <c r="N5">
-        <v>13.6369725590517</v>
+        <v>42.801432</v>
       </c>
       <c r="O5">
-        <v>0.2982242419302018</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P5">
-        <v>0.2982242419302018</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q5">
-        <v>16.82083242822134</v>
+        <v>53.966064266476</v>
       </c>
       <c r="R5">
-        <v>16.82083242822134</v>
+        <v>323.796385598856</v>
       </c>
       <c r="S5">
-        <v>0.002098817179130478</v>
+        <v>0.006358304266381168</v>
       </c>
       <c r="T5">
-        <v>0.002098817179130478</v>
+        <v>0.005567748016413008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.7867388588928</v>
+        <v>3.7825415</v>
       </c>
       <c r="H6">
-        <v>74.7867388588928</v>
+        <v>7.565083</v>
       </c>
       <c r="I6">
-        <v>0.4267040305354089</v>
+        <v>0.02134139439091907</v>
       </c>
       <c r="J6">
-        <v>0.4267040305354089</v>
+        <v>0.0143760362842082</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>32.0902710439126</v>
+        <v>0.102085</v>
       </c>
       <c r="N6">
-        <v>32.0902710439126</v>
+        <v>0.20417</v>
       </c>
       <c r="O6">
-        <v>0.7017757580697982</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P6">
-        <v>0.7017757580697982</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q6">
-        <v>2399.926720472181</v>
+        <v>0.3861407490275</v>
       </c>
       <c r="R6">
-        <v>2399.926720472181</v>
+        <v>1.54456299611</v>
       </c>
       <c r="S6">
-        <v>0.2994505445004249</v>
+        <v>4.549526457667501E-05</v>
       </c>
       <c r="T6">
-        <v>0.2994505445004249</v>
+        <v>2.6559090651711E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.7867388588928</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H7">
-        <v>74.7867388588928</v>
+        <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.4267040305354089</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J7">
-        <v>0.4267040305354089</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.6369725590517</v>
+        <v>33.0450625</v>
       </c>
       <c r="N7">
-        <v>13.6369725590517</v>
+        <v>66.090125</v>
       </c>
       <c r="O7">
-        <v>0.2982242419302018</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P7">
-        <v>0.2982242419302018</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q7">
-        <v>1019.864705599687</v>
+        <v>51.91436596858334</v>
       </c>
       <c r="R7">
-        <v>1019.864705599687</v>
+        <v>311.4861958115</v>
       </c>
       <c r="S7">
-        <v>0.127253486034984</v>
+        <v>0.006116572314679036</v>
       </c>
       <c r="T7">
-        <v>0.127253486034984</v>
+        <v>0.005356071673443785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.123317933218</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H8">
-        <v>92.123317933218</v>
+        <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.5256198046363243</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J8">
-        <v>0.5256198046363243</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.0902710439126</v>
+        <v>0.195349</v>
       </c>
       <c r="N8">
-        <v>32.0902710439126</v>
+        <v>0.586047</v>
       </c>
       <c r="O8">
-        <v>0.7017757580697982</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P8">
-        <v>0.7017757580697982</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q8">
-        <v>2956.2622419415</v>
+        <v>0.3068966650493333</v>
       </c>
       <c r="R8">
-        <v>2956.2622419415</v>
+        <v>2.762069985444</v>
       </c>
       <c r="S8">
-        <v>0.3688672368551557</v>
+        <v>3.615869345383247E-05</v>
       </c>
       <c r="T8">
-        <v>0.3688672368551557</v>
+        <v>4.749438340458139E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.123317933218</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H9">
-        <v>92.123317933218</v>
+        <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.5256198046363243</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J9">
-        <v>0.5256198046363243</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>13.6369725590517</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N9">
-        <v>13.6369725590517</v>
+        <v>0.832376</v>
       </c>
       <c r="O9">
-        <v>0.2982242419302018</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P9">
-        <v>0.2982242419302018</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q9">
-        <v>1256.283158704089</v>
+        <v>0.435892374616889</v>
       </c>
       <c r="R9">
-        <v>1256.283158704089</v>
+        <v>3.923031371552</v>
       </c>
       <c r="S9">
-        <v>0.1567525677811686</v>
+        <v>5.135702191518302E-05</v>
       </c>
       <c r="T9">
-        <v>0.1567525677811686</v>
+        <v>6.745736243129278E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.45723501082356</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H10">
-        <v>2.45723501082356</v>
+        <v>4.713052</v>
       </c>
       <c r="I10">
-        <v>0.0140200268000649</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J10">
-        <v>0.0140200268000649</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0902710439126</v>
+        <v>14.267144</v>
       </c>
       <c r="N10">
-        <v>32.0902710439126</v>
+        <v>42.801432</v>
       </c>
       <c r="O10">
-        <v>0.7017757580697982</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P10">
-        <v>0.7017757580697982</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q10">
-        <v>78.85333751591956</v>
+        <v>22.41393052116267</v>
       </c>
       <c r="R10">
-        <v>78.85333751591956</v>
+        <v>201.725374690464</v>
       </c>
       <c r="S10">
-        <v>0.009838914935774433</v>
+        <v>0.002640818669958307</v>
       </c>
       <c r="T10">
-        <v>0.009838914935774433</v>
+        <v>0.003468710908294247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.45723501082356</v>
+        <v>1.571017333333333</v>
       </c>
       <c r="H11">
-        <v>2.45723501082356</v>
+        <v>4.713052</v>
       </c>
       <c r="I11">
-        <v>0.0140200268000649</v>
+        <v>0.008863802421106721</v>
       </c>
       <c r="J11">
-        <v>0.0140200268000649</v>
+        <v>0.008956280659625284</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>13.6369725590517</v>
+        <v>0.102085</v>
       </c>
       <c r="N11">
-        <v>13.6369725590517</v>
+        <v>0.20417</v>
       </c>
       <c r="O11">
-        <v>0.2982242419302018</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P11">
-        <v>0.2982242419302018</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q11">
-        <v>33.50924641374199</v>
+        <v>0.1603773044733333</v>
       </c>
       <c r="R11">
-        <v>33.50924641374199</v>
+        <v>0.96226382684</v>
       </c>
       <c r="S11">
-        <v>0.004181111864290468</v>
+        <v>1.889572110036135E-05</v>
       </c>
       <c r="T11">
-        <v>0.004181111864290468</v>
+        <v>1.654633205137708E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.6759238332114</v>
+        <v>75.41654966666667</v>
       </c>
       <c r="H12">
-        <v>1.6759238332114</v>
+        <v>226.249649</v>
       </c>
       <c r="I12">
-        <v>0.009562169248360295</v>
+        <v>0.4255060598908617</v>
       </c>
       <c r="J12">
-        <v>0.009562169248360295</v>
+        <v>0.4299454696416905</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N12">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O12">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P12">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q12">
-        <v>53.7808500567068</v>
+        <v>2492.144597269354</v>
       </c>
       <c r="R12">
-        <v>53.7808500567068</v>
+        <v>14952.86758361613</v>
       </c>
       <c r="S12">
-        <v>0.006710498573059758</v>
+        <v>0.2936255189374633</v>
       </c>
       <c r="T12">
-        <v>0.006710498573059758</v>
+        <v>0.2571177521774635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>75.41654966666667</v>
+      </c>
+      <c r="H13">
+        <v>226.249649</v>
+      </c>
+      <c r="I13">
+        <v>0.4255060598908617</v>
+      </c>
+      <c r="J13">
+        <v>0.4299454696416905</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.195349</v>
+      </c>
+      <c r="N13">
+        <v>0.586047</v>
+      </c>
+      <c r="O13">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P13">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q13">
+        <v>14.73254756083367</v>
+      </c>
+      <c r="R13">
+        <v>132.592928047503</v>
+      </c>
+      <c r="S13">
+        <v>0.001735794916378642</v>
+      </c>
+      <c r="T13">
+        <v>0.002279963720909076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>75.41654966666667</v>
+      </c>
+      <c r="H14">
+        <v>226.249649</v>
+      </c>
+      <c r="I14">
+        <v>0.4255060598908617</v>
+      </c>
+      <c r="J14">
+        <v>0.4299454696416905</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.832376</v>
+      </c>
+      <c r="O14">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P14">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q14">
+        <v>20.92497531511378</v>
+      </c>
+      <c r="R14">
+        <v>188.324777836024</v>
+      </c>
+      <c r="S14">
+        <v>0.002465389344737861</v>
+      </c>
+      <c r="T14">
+        <v>0.003238284782885013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>75.41654966666667</v>
+      </c>
+      <c r="H15">
+        <v>226.249649</v>
+      </c>
+      <c r="I15">
+        <v>0.4255060598908617</v>
+      </c>
+      <c r="J15">
+        <v>0.4299454696416905</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.267144</v>
+      </c>
+      <c r="N15">
+        <v>42.801432</v>
+      </c>
+      <c r="O15">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P15">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q15">
+        <v>1075.978774077485</v>
+      </c>
+      <c r="R15">
+        <v>9683.808966697368</v>
+      </c>
+      <c r="S15">
+        <v>0.1267722692537052</v>
+      </c>
+      <c r="T15">
+        <v>0.166515163737647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>75.41654966666667</v>
+      </c>
+      <c r="H16">
+        <v>226.249649</v>
+      </c>
+      <c r="I16">
+        <v>0.4255060598908617</v>
+      </c>
+      <c r="J16">
+        <v>0.4299454696416905</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.102085</v>
+      </c>
+      <c r="N16">
+        <v>0.20417</v>
+      </c>
+      <c r="O16">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P16">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q16">
+        <v>7.698898472721666</v>
+      </c>
+      <c r="R16">
+        <v>46.19339083633</v>
+      </c>
+      <c r="S16">
+        <v>0.0009070874385766691</v>
+      </c>
+      <c r="T16">
+        <v>0.0007943052227858962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H17">
+        <v>276.607621</v>
+      </c>
+      <c r="I17">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J17">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.0450625</v>
+      </c>
+      <c r="N17">
+        <v>66.090125</v>
+      </c>
+      <c r="O17">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P17">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q17">
+        <v>3046.838707973771</v>
+      </c>
+      <c r="R17">
+        <v>18281.03224784262</v>
+      </c>
+      <c r="S17">
+        <v>0.3589798110943463</v>
+      </c>
+      <c r="T17">
+        <v>0.3143462545070103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H18">
+        <v>276.607621</v>
+      </c>
+      <c r="I18">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J18">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.195349</v>
+      </c>
+      <c r="N18">
+        <v>0.586047</v>
+      </c>
+      <c r="O18">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P18">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q18">
+        <v>18.01167405157633</v>
+      </c>
+      <c r="R18">
+        <v>162.105066464187</v>
+      </c>
+      <c r="S18">
+        <v>0.002122142971206953</v>
+      </c>
+      <c r="T18">
+        <v>0.002787431245062252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H19">
+        <v>276.607621</v>
+      </c>
+      <c r="I19">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J19">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.832376</v>
+      </c>
+      <c r="O19">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P19">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q19">
+        <v>25.58239390416622</v>
+      </c>
+      <c r="R19">
+        <v>230.241545137496</v>
+      </c>
+      <c r="S19">
+        <v>0.003014128351141391</v>
+      </c>
+      <c r="T19">
+        <v>0.003959052550460862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="H13">
-        <v>1.6759238332114</v>
-      </c>
-      <c r="I13">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="J13">
-        <v>0.009562169248360295</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="N13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="O13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="P13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="Q13">
-        <v>22.8545273245646</v>
-      </c>
-      <c r="R13">
-        <v>22.8545273245646</v>
-      </c>
-      <c r="S13">
-        <v>0.002851670675300537</v>
-      </c>
-      <c r="T13">
-        <v>0.002851670675300537</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H20">
+        <v>276.607621</v>
+      </c>
+      <c r="I20">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J20">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.267144</v>
+      </c>
+      <c r="N20">
+        <v>42.801432</v>
+      </c>
+      <c r="O20">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P20">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q20">
+        <v>1315.466920101475</v>
+      </c>
+      <c r="R20">
+        <v>11839.20228091327</v>
+      </c>
+      <c r="S20">
+        <v>0.1549888627983632</v>
+      </c>
+      <c r="T20">
+        <v>0.2035776121884547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>92.20254033333333</v>
+      </c>
+      <c r="H21">
+        <v>276.607621</v>
+      </c>
+      <c r="I21">
+        <v>0.5202139294699846</v>
+      </c>
+      <c r="J21">
+        <v>0.5256414498009485</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.102085</v>
+      </c>
+      <c r="N21">
+        <v>0.20417</v>
+      </c>
+      <c r="O21">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P21">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q21">
+        <v>9.412496329928333</v>
+      </c>
+      <c r="R21">
+        <v>56.47497797957</v>
+      </c>
+      <c r="S21">
+        <v>0.001108984254926628</v>
+      </c>
+      <c r="T21">
+        <v>0.0009710993099603956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H22">
+        <v>7.677838</v>
+      </c>
+      <c r="I22">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J22">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.0450625</v>
+      </c>
+      <c r="N22">
+        <v>66.090125</v>
+      </c>
+      <c r="O22">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P22">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q22">
+        <v>84.57154552495834</v>
+      </c>
+      <c r="R22">
+        <v>507.42927314975</v>
+      </c>
+      <c r="S22">
+        <v>0.00996425487081209</v>
+      </c>
+      <c r="T22">
+        <v>0.008725354743612053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H23">
+        <v>7.677838</v>
+      </c>
+      <c r="I23">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J23">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.195349</v>
+      </c>
+      <c r="N23">
+        <v>0.586047</v>
+      </c>
+      <c r="O23">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P23">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q23">
+        <v>0.4999526584873333</v>
+      </c>
+      <c r="R23">
+        <v>4.499573926386</v>
+      </c>
+      <c r="S23">
+        <v>5.890463135780937E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.737113481673114E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H24">
+        <v>7.677838</v>
+      </c>
+      <c r="I24">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J24">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.832376</v>
+      </c>
+      <c r="O24">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P24">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q24">
+        <v>0.7100942314542223</v>
+      </c>
+      <c r="R24">
+        <v>6.390848083088001</v>
+      </c>
+      <c r="S24">
+        <v>8.366359938893629E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001098919979356799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H25">
+        <v>7.677838</v>
+      </c>
+      <c r="I25">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J25">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.267144</v>
+      </c>
+      <c r="N25">
+        <v>42.801432</v>
+      </c>
+      <c r="O25">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P25">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q25">
+        <v>36.51360678489067</v>
+      </c>
+      <c r="R25">
+        <v>328.622461064016</v>
+      </c>
+      <c r="S25">
+        <v>0.00430204842537603</v>
+      </c>
+      <c r="T25">
+        <v>0.005650733414932847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.559279333333333</v>
+      </c>
+      <c r="H26">
+        <v>7.677838</v>
+      </c>
+      <c r="I26">
+        <v>0.01443965376432621</v>
+      </c>
+      <c r="J26">
+        <v>0.01459030623620025</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.102085</v>
+      </c>
+      <c r="N26">
+        <v>0.20417</v>
+      </c>
+      <c r="O26">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P26">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q26">
+        <v>0.2612640307433333</v>
+      </c>
+      <c r="R26">
+        <v>1.56758418446</v>
+      </c>
+      <c r="S26">
+        <v>3.078223739134559E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.695494490293782E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.7077325</v>
+      </c>
+      <c r="H27">
+        <v>3.415465</v>
+      </c>
+      <c r="I27">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J27">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>33.0450625</v>
+      </c>
+      <c r="N27">
+        <v>66.090125</v>
+      </c>
+      <c r="O27">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P27">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q27">
+        <v>56.43212719578126</v>
+      </c>
+      <c r="R27">
+        <v>225.728508783125</v>
+      </c>
+      <c r="S27">
+        <v>0.006648856832288897</v>
+      </c>
+      <c r="T27">
+        <v>0.003881449926319225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.7077325</v>
+      </c>
+      <c r="H28">
+        <v>3.415465</v>
+      </c>
+      <c r="I28">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J28">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.195349</v>
+      </c>
+      <c r="N28">
+        <v>0.586047</v>
+      </c>
+      <c r="O28">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P28">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q28">
+        <v>0.3336038361425</v>
+      </c>
+      <c r="R28">
+        <v>2.001623016855</v>
+      </c>
+      <c r="S28">
+        <v>3.930534352388662E-05</v>
+      </c>
+      <c r="T28">
+        <v>3.441833534086375E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.7077325</v>
+      </c>
+      <c r="H29">
+        <v>3.415465</v>
+      </c>
+      <c r="I29">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J29">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.832376</v>
+      </c>
+      <c r="O29">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P29">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q29">
+        <v>0.4738251824733334</v>
+      </c>
+      <c r="R29">
+        <v>2.84295109484</v>
+      </c>
+      <c r="S29">
+        <v>5.582628120447448E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.88851513576331E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.7077325</v>
+      </c>
+      <c r="H30">
+        <v>3.415465</v>
+      </c>
+      <c r="I30">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J30">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.267144</v>
+      </c>
+      <c r="N30">
+        <v>42.801432</v>
+      </c>
+      <c r="O30">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P30">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q30">
+        <v>24.36446549098</v>
+      </c>
+      <c r="R30">
+        <v>146.18679294588</v>
+      </c>
+      <c r="S30">
+        <v>0.002870631516029045</v>
+      </c>
+      <c r="T30">
+        <v>0.002513713131617731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.7077325</v>
+      </c>
+      <c r="H31">
+        <v>3.415465</v>
+      </c>
+      <c r="I31">
+        <v>0.009635160062801747</v>
+      </c>
+      <c r="J31">
+        <v>0.006490457377327275</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.102085</v>
+      </c>
+      <c r="N31">
+        <v>0.20417</v>
+      </c>
+      <c r="O31">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P31">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q31">
+        <v>0.1743338722625</v>
+      </c>
+      <c r="R31">
+        <v>0.69733548905</v>
+      </c>
+      <c r="S31">
+        <v>2.054008975544265E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.19908326918219E-05</v>
       </c>
     </row>
   </sheetData>
